--- a/docs/collections/fujikawa/metadata/data.xlsx
+++ b/docs/collections/fujikawa/metadata/data.xlsx
@@ -230,7 +230,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/fujikawa/document/d4406f27-c2aa-4a3c-bd54-a77fdf7740e0</t>
   </si>
   <si>
-    <t>http://ikuto.p.u-tokyo.ac.jp/reuse.html</t>
+    <t>https://www.lib.u-tokyo.ac.jp/ja/library/contents/archives-top/reuse</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/8844536fc53bf78965edb13f03cd7ab1ec014e3c.jpg</t>
